--- a/data/case1/19/Qlm2_1.xlsx
+++ b/data/case1/19/Qlm2_1.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.42578125" customWidth="true"/>
+    <col min="1" max="1" width="15.7109375" customWidth="true"/>
+    <col min="2" max="2" width="16.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.091531710999127824</v>
+        <v>-0.1026037900120258</v>
       </c>
       <c r="B1" s="0">
-        <v>0.090963230132480533</v>
+        <v>0.10229873858367</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.1113810586112578</v>
+        <v>-0.080198531312594135</v>
       </c>
       <c r="B2" s="0">
-        <v>0.11003311620862721</v>
+        <v>0.078996690892987331</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.060316798308495123</v>
+        <v>-0.029283859676075608</v>
       </c>
       <c r="B3" s="0">
-        <v>0.059949786943318983</v>
+        <v>0.028973510603316655</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.051949787007639969</v>
+        <v>-0.02097351071272513</v>
       </c>
       <c r="B4" s="0">
-        <v>0.051626364884144849</v>
+        <v>0.020700902710778735</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.048626364915598685</v>
+        <v>-0.017700902759337112</v>
       </c>
       <c r="B5" s="0">
-        <v>0.047540302203424645</v>
+        <v>0.016785145016782188</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0029827718059802777</v>
+        <v>0.00080702943691690621</v>
       </c>
       <c r="B6" s="0">
-        <v>0.0028422629123099341</v>
+        <v>-0.00098751761136384175</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0071577370041833177</v>
+        <v>0.010987517476769071</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.0071811923464872862</v>
+        <v>-0.011022308638140466</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.017181192263743483</v>
+        <v>0.021022308505631138</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.017212114528875944</v>
+        <v>-0.021077850891420002</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.029645408664532358</v>
+        <v>0.02307785086382852</v>
       </c>
       <c r="B9" s="0">
-        <v>0.029409569505501665</v>
+        <v>-0.023123961430615569</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.027409569532830247</v>
+        <v>0.025123961409518003</v>
       </c>
       <c r="B10" s="0">
-        <v>0.027394404567719022</v>
+        <v>-0.025124287493454744</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.024394404602491981</v>
+        <v>0.028124287461001707</v>
       </c>
       <c r="B11" s="0">
-        <v>0.024368101307405965</v>
+        <v>-0.028129889994789714</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.020868101346557477</v>
+        <v>-0.0094290460888473149</v>
       </c>
       <c r="B12" s="0">
-        <v>0.020671958074900854</v>
+        <v>0.0093175800037075263</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.017171958117172537</v>
+        <v>-0.0058175800422350932</v>
       </c>
       <c r="B13" s="0">
-        <v>0.017082754750275875</v>
+        <v>0.0057295487839956749</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0090827548246057432</v>
+        <v>-0.0048216673550269817</v>
       </c>
       <c r="B14" s="0">
-        <v>0.0090537425482200007</v>
+        <v>0.0048206863950879253</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.008053742574261058</v>
+        <v>-0.0038206864027463538</v>
       </c>
       <c r="B15" s="0">
-        <v>0.0080350195309790706</v>
+        <v>0.0038204646497970174</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0060350195645089144</v>
+        <v>-0.0018204646698585236</v>
       </c>
       <c r="B16" s="0">
-        <v>0.006003409524895531</v>
+        <v>0.001814666414702959</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.004003409559008908</v>
+        <v>0.00018533356529903955</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0039999999517048579</v>
+        <v>-0.00019055030630177328</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.026417828436279933</v>
+        <v>-0.016100207346429585</v>
       </c>
       <c r="B18" s="0">
-        <v>-0.026645739356744969</v>
+        <v>0.016090674972449648</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.001725134586936683</v>
+        <v>-0.012090675023090913</v>
       </c>
       <c r="B19" s="0">
-        <v>0.0015136171814060795</v>
+        <v>0.012015748304308183</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0080165060563626156</v>
+        <v>-0.0080157483590532763</v>
       </c>
       <c r="B20" s="0">
-        <v>0.0080056678478097609</v>
+        <v>0.008005619669102515</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0040056678767124154</v>
+        <v>-0.0040056197244613401</v>
       </c>
       <c r="B21" s="0">
-        <v>0.003999999970821122</v>
+        <v>0.0039999999442095202</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.045716317934481054</v>
+        <v>-0.045712831275540822</v>
       </c>
       <c r="B22" s="0">
-        <v>0.045501866962606385</v>
+        <v>0.045499887041788867</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.040501867006090819</v>
+        <v>-0.040499887116864031</v>
       </c>
       <c r="B23" s="0">
-        <v>0.040099548872130519</v>
+        <v>0.040098990859671169</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.020099549024079622</v>
+        <v>-0.020098991127214028</v>
       </c>
       <c r="B24" s="0">
-        <v>0.019999999846006311</v>
+        <v>0.019999999728598894</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.042557530425829881</v>
+        <v>-0.015592174490896227</v>
       </c>
       <c r="B25" s="0">
-        <v>0.042503611512843875</v>
+        <v>0.015564528403443134</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.040003611545534667</v>
+        <v>-0.028210665343966213</v>
       </c>
       <c r="B26" s="0">
-        <v>0.039937234493915952</v>
+        <v>0.028121198350101295</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.037437234527754715</v>
+        <v>-0.025621198395235911</v>
       </c>
       <c r="B27" s="0">
-        <v>0.037063136688392007</v>
+        <v>0.025100165236158656</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.035063136723343824</v>
+        <v>-0.023100165281187302</v>
       </c>
       <c r="B28" s="0">
-        <v>0.034826263930712642</v>
+        <v>0.022762150483909949</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.027826264003778078</v>
+        <v>-0.01576215059408792</v>
       </c>
       <c r="B29" s="0">
-        <v>0.027770762317948616</v>
+        <v>0.015675238987268969</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.032229237238686093</v>
+        <v>0.044324760246357453</v>
       </c>
       <c r="B30" s="0">
-        <v>-0.03235345752126273</v>
+        <v>-0.044611959510094668</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014022528706856718</v>
+        <v>-0.014021159071152312</v>
       </c>
       <c r="B31" s="0">
-        <v>0.01400106269837309</v>
+        <v>0.014000842091242305</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.004001062790266019</v>
+        <v>-0.0040008422288817513</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0039999999497570826</v>
+        <v>0.003999999936487697</v>
       </c>
     </row>
   </sheetData>
